--- a/ЗАВОДЫ/ПОКОМ/ОПТы/2025/07,25/10,07,25  ПОКОМ ПРС КИ ЛП ближ/Заказ ПРС 10,07,25.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/ОПТы/2025/07,25/10,07,25  ПОКОМ ПРС КИ ЛП ближ/Заказ ПРС 10,07,25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\10,07,25  ПОКОМ ПРС КИ ЛП ближ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\ОПТы\2025\07,25\10,07,25  ПОКОМ ПРС КИ ЛП ближ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0F2BDB-80B7-4AB3-A55F-C7DBD5B90B11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9601770-A7B1-470A-8215-E4A86252F609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$B$3:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$B$3:$C$39</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -260,9 +260,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -276,6 +273,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1041,7 +1041,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1054,7 +1054,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1063,7 +1063,7 @@
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="7"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="3"/>
       <c r="F2">
         <f>SUM(F4:F39)</f>
@@ -1239,17 +1239,17 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>250</v>
       </c>
-      <c r="E11" s="11" t="str">
+      <c r="E11" s="10" t="str">
         <f>VLOOKUP(C11,[1]TDSheet!$C:$E,3,0)</f>
         <v>нет в бланке</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1635,10 +1635,10 @@
       </c>
     </row>
     <row r="32" spans="3:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>180</v>
       </c>
       <c r="E32" s="5">
@@ -1699,33 +1699,33 @@
       </c>
     </row>
     <row r="36" spans="3:6" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="11">
         <v>240</v>
       </c>
-      <c r="E36" s="11" t="str">
+      <c r="E36" s="10" t="str">
         <f>VLOOKUP(C36,[1]TDSheet!$C:$E,3,0)</f>
         <v>нет в бланке</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="11">
         <v>300</v>
       </c>
-      <c r="E37" s="11" t="str">
+      <c r="E37" s="10" t="str">
         <f>VLOOKUP(C37,[1]TDSheet!$C:$E,3,0)</f>
         <v>нет в бланке</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1747,13 +1747,13 @@
       </c>
     </row>
     <row r="39" spans="3:6" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>180</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="12" t="s">
         <v>41</v>
       </c>
       <c r="F39" s="5">
@@ -1777,7 +1777,7 @@
       <c r="C44" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:C3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B3:C39" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="B1:B2"/>
   </mergeCells>
